--- a/testData/login_test_data.xlsx
+++ b/testData/login_test_data.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
     <sheet name="ad" sheetId="2" r:id="rId2"/>
     <sheet name="pwd_ad" sheetId="3" r:id="rId3"/>
     <sheet name="radius" sheetId="4" r:id="rId4"/>
-    <sheet name="add_user" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>ad</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,18 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ccc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,58 +250,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ad1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账号未生效,生效时间：2020-09-08 17:21:31.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-09-08 17:21:31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户账号0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认密码3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证方式5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD域账号6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,11 +298,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gyrlogin3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gyrlogin4</t>
+    <t>gyrloginad1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,7 +306,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gyrloginad1</t>
+    <t>gyrlogin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrlogin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号未生效,生效时间：2044-08-02 00:00:00.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -503,19 +446,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -526,7 +456,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,35 +819,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>11</v>
@@ -935,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -972,7 +899,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -986,13 +913,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1084,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E10" s="7">
         <v>2</v>
@@ -1095,42 +1022,42 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E11" s="7">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E12" s="7">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1144,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
@@ -1173,37 +1100,37 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>12</v>
@@ -1218,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="10" t="s">
@@ -1395,39 +1322,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.25" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="6.625" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="39.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>11</v>
@@ -1442,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -1486,13 +1413,13 @@
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -1509,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1536,36 +1463,36 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.25" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>12</v>
@@ -1579,13 +1506,13 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -1600,14 +1527,14 @@
         <v>38</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -1621,16 +1548,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -1640,173 +1567,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="23.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>